--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_12-21.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_12-21.xlsx
@@ -47,6 +47,15 @@
     <t>8:0</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -59,9 +68,6 @@
     <t>1:1</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>LYSE 0.65% NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
     <t>TRICOVEL 30 TABS.</t>
   </si>
   <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -114,6 +123,9 @@
   </si>
   <si>
     <t>-1:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t xml:space="preserve">فرش  فوكس عرض</t>
@@ -770,17 +782,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>52</v>
+        <v>-16</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -788,7 +800,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -796,13 +808,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -828,11 +840,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -854,11 +866,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -874,7 +886,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -884,7 +896,7 @@
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -892,7 +904,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -900,17 +912,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -926,17 +938,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -944,7 +956,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -952,17 +964,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -970,7 +982,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -978,17 +990,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1004,17 +1016,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>531</v>
+        <v>84</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1022,7 +1034,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1030,17 +1042,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>34</v>
+        <v>531</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1056,17 +1068,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>96</v>
+        <v>-96</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1074,7 +1086,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1082,17 +1094,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1100,7 +1112,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1108,13 +1120,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1140,7 +1152,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1166,45 +1178,123 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c t="s" r="B22" s="7">
+        <v>39</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c t="s" r="H22" s="8">
+        <v>14</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9">
+        <v>40</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c t="s" r="N22" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="22" ht="26.25" customHeight="1">
-      <c r="K22" s="10">
-        <v>1352</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="11">
-        <v>39</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c t="s" r="F23" s="12">
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c t="s" r="B23" s="7">
         <v>40</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c t="s" r="I23" s="14">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c t="s" r="H23" s="8">
         <v>41</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9">
+        <v>80</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c t="s" r="N23" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" ht="24.75" customHeight="1">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c t="s" r="B24" s="7">
+        <v>42</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c t="s" r="H24" s="8">
+        <v>9</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9">
+        <v>20</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c t="s" r="N24" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="26.25" customHeight="1">
+      <c r="K25" s="10">
+        <v>1236</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="11">
+        <v>43</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c t="s" r="F26" s="12">
+        <v>44</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+      <c t="s" r="I26" s="14">
+        <v>45</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="74">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1266,10 +1356,19 @@
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:N26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
